--- a/contentUtility/CreateContent.xlsx
+++ b/contentUtility/CreateContent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roger.kibbe/Documents/Bixby_Capsules/capsule-sample-fact/contentUtility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E41E5D-FA33-A84F-83E1-4B18637A1F54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17D6BF8-4F08-9046-8844-E52EA9A833CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="4320" windowWidth="44360" windowHeight="24560" xr2:uid="{1219A86E-B1BE-2748-BCB3-FE7073D4C6FD}"/>
+    <workbookView xWindow="32980" yWindow="3260" windowWidth="44360" windowHeight="24560" xr2:uid="{1219A86E-B1BE-2748-BCB3-FE7073D4C6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="content" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>A sneeze travels about 100 miles per hour</t>
   </si>
@@ -192,21 +192,49 @@
     <t>Content Creation Spreadsheet for Bixby Fact Capsule</t>
   </si>
   <si>
-    <t>Instructions:
-1) Enter your text facts into the text column
+    <t>values for the content.js file (copy and paste all lines below this - everything in blue)</t>
+  </si>
+  <si>
+    <t>https://github.com/bixbydevelopers/capsule-sample-fact</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instructions:
+1) Enter your text facts into the text column (make sure their are formulas in columns D &amp;E for each row)
 2) Enter any tags for the text (optional). This will be used to drive questions like "Show me content about [tag]"
 3) Enter image URL's - not if hosting with the capsule e.g. using the assets/image folder, use the filename e.g, earth.png, if hosting externally, use a full URL e.g. http://www.imagehost.com/earth.png
-4) Copy and paste the values from column E into the /code/content.js file</t>
-  </si>
-  <si>
-    <t>values for the content.js file (copy and paste all lines below this)</t>
+4) Copy and paste the values (in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>blue</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) from column E into the /code/content.js file</t>
+    </r>
+  </si>
+  <si>
+    <t>NEED TO CUT AND PASTE FORMULAS FROM COLUMNS D&amp;E FOR CONTENT BEYOND HERE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,13 +272,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -266,15 +351,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,33 +679,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B5D3AA-3320-0143-A06E-3D76B9802289}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="64.5" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="102.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="24">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="112" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -626,314 +720,316 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="str">
-        <f>CONCATENATE("{",IF(COUNTBLANK(D4),"",CONCATENATE("tags: ",D4,", ")),"text: """,A4,"","""",IF(ISBLANK(C4),"",CONCATENATE(", image: {url: """, IF(LEFT(C4,4)="http",C4,  CONCATENATE("images/",C4) ),"""}"  )  ),"},")</f>
+      <c r="D4" s="9"/>
+      <c r="E4" s="4" t="str">
+        <f t="shared" ref="E4:E28" si="0">IF(NOT(ISBLANK(A4)),CONCATENATE("{",IF(COUNTBLANK(D4),"",CONCATENATE("tags: ",D4,", ")),"text: """,A4,"","""",IF(ISBLANK(C4),"",CONCATENATE(", image: {url: """, IF(LEFT(C4,4)="http",C4,  CONCATENATE("images/",C4) ),"""}"  )  ),"},"),"")</f>
         <v>{text: "The world’s oldest piece of chewing gum is over 9000 years old!", image: {url: "images/gum.png"}},</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:D29" si="0">IF(ISBLANK(B5),"",CONCATENATE("[""",LOWER(SUBSTITUTE(B5,", ",""",""")),"""]"))</f>
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5:E29" si="1">CONCATENATE("{",IF(COUNTBLANK(D5),"",CONCATENATE("tags: ",D5,", ")),"text: """,A5,"","""",IF(ISBLANK(C5),"",CONCATENATE(", image: {url: """, IF(LEFT(C5,4)="http",C5,  CONCATENATE("images/",C5) ),"""}"  )  ),"},")</f>
+      <c r="D5" s="9" t="str">
+        <f t="shared" ref="D5:D68" si="1">IF(ISBLANK(B5),"",CONCATENATE("[""",LOWER(SUBSTITUTE(B5,", ",""",""")),"""]"))</f>
+        <v/>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "A sneeze travels about 100 miles per hour", image: {url: "images/sneeze.png"}},</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
+      <c r="D6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "It would take a sloth one month to travel one mile", image: {url: "images/sloth.png"}},</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "10% of the World’s population is left handed"},</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "Computers went by the name 'Electronic Brains' in the 1950s", image: {url: "images/computer_brain.png"}},</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "A broken clock is right two times every day", image: {url: "images/clock.png"}},</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "A mole can dig a tunnel that is 300 feet long in only one night"},</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
+      <c r="D11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "A crocodile can’t poke its tongue out", image: {url: "images/crocodile.png"}},</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
+      <c r="D12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "Blueberries will not ripen until they are picked"},</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
+      <c r="D13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "Honey never spoils", image: {url: "images/honey.png"}},</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
+      <c r="D14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "The first-ever webcam was used to watch a pot of coffee", image: {url: "images/coffee_pot.png"}},</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
+      <c r="D15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "In New York it is illegal to sell a haunted house without telling the buyer", image: {url: "images/haunted_house.png"}},</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
+      <c r="D16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "Human thigh bones are stronger than concrete"},</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
+      <c r="D17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "The male ostrich can roar just like a lion", image: {url: "images/ostrich.png"}},</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
+      <c r="D18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "Scientists have tracked butterflies that travel over 3000 miles", image: {url: "images/butterfly.png"}},</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
+      <c r="D19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "If 33 million people held hands they could make it all the way around the equator", image: {url: "images/earth.png"}},</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="1"/>
+      <c r="D20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "The term 'tera' in terrabyte is from the greek word for monster", image: {url: "images/monster.png"}},</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="1"/>
+      <c r="D21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "The tongue of a blue whale weighs more than most elephants", image: {url: "images/whale.png"}},</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
+      <c r="D22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "A cow gives nearly 200,000 glasses of milk in a lifetime", image: {url: "images/cow.png"}},</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
+      <c r="D23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{text: "Dolphins sleep with one eye open", image: {url: "images/dolphin.png"}},</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -943,16 +1039,16 @@
       <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
+      <c r="D24" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>["dog","dogs"]</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="1"/>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{tags: ["dog","dogs"], text: "What do you call a cold dog?... A chili dog!", image: {url: "images/dog1.jpg"}},</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -962,16 +1058,16 @@
       <c r="C25" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
+      <c r="D25" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>["dog","dogs"]</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="1"/>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{tags: ["dog","dogs"], text: "What do a dog and cell phone have in common?... Both have collar ID!", image: {url: "images/dog2.png"}},</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -981,16 +1077,16 @@
       <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
+      <c r="D26" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>["dog","dogs"]</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="1"/>
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{tags: ["dog","dogs"], text: "What kind of dog doesn't bark?... A hush puppy!", image: {url: "images/dog3.jpg"}},</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1000,16 +1096,16 @@
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
+      <c r="D27" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>["cat","cats"]</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{tags: ["cat","cats"], text: "What do cats like to eat on a hot day?... Mice Cream", image: {url: "images/cat1.png"}},</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1019,16 +1115,16 @@
       <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
+      <c r="D28" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>["cat","cats"]</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="1"/>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>{tags: ["cat","cats"], text: "Why was the cat afraid of the tree? Because of it's bark!", image: {url: "images/cat2.png"}},</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1038,19 +1134,757 @@
       <c r="C29" t="s">
         <v>53</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
+      <c r="D29" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>["cat","cats"]</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="1"/>
+      <c r="E29" s="4" t="str">
+        <f>IF(NOT(ISBLANK(A29)),CONCATENATE("{",IF(COUNTBLANK(D29),"",CONCATENATE("tags: ",D29,", ")),"text: """,A29,"","""",IF(ISBLANK(C29),"",CONCATENATE(", image: {url: """, IF(LEFT(C29,4)="http",C29,  CONCATENATE("images/",C29) ),"""}"  )  ),"},"),"")</f>
         <v>{tags: ["cat","cats"], text: "What type of cats go bowling?... Alley cats!", image: {url: "images/cat3.jpg"}},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="D30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f t="shared" ref="E30:E93" si="2">IF(NOT(ISBLANK(A30)),CONCATENATE("{",IF(COUNTBLANK(D30),"",CONCATENATE("tags: ",D30,", ")),"text: """,A30,"","""",IF(ISBLANK(C30),"",CONCATENATE(", image: {url: """, IF(LEFT(C30,4)="http",C30,  CONCATENATE("images/",C30) ),"""}"  )  ),"},"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="D31" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="D32" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E52" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E65" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" s="9" t="str">
+        <f t="shared" ref="D69:D102" si="3">IF(ISBLANK(B69),"",CONCATENATE("[""",LOWER(SUBSTITUTE(B69,", ",""",""")),"""]"))</f>
+        <v/>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E75" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E76" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E78" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E79" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E80" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E81" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E82" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E83" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E84" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="4:5">
+      <c r="D85" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E85" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="D86" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E86" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="4:5">
+      <c r="D87" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E87" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="D88" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E88" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="D89" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E89" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="4:5">
+      <c r="D90" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E90" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="4:5">
+      <c r="D91" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="4:5">
+      <c r="D92" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="4:5">
+      <c r="D93" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E93" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="4:5">
+      <c r="D94" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E94" s="4" t="str">
+        <f t="shared" ref="E94:E102" si="4">IF(NOT(ISBLANK(A94)),CONCATENATE("{",IF(COUNTBLANK(D94),"",CONCATENATE("tags: ",D94,", ")),"text: """,A94,"","""",IF(ISBLANK(C94),"",CONCATENATE(", image: {url: """, IF(LEFT(C94,4)="http",C94,  CONCATENATE("images/",C94) ),"""}"  )  ),"},"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="4:5">
+      <c r="D95" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="4:5">
+      <c r="D96" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E96" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="D97" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E97" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="D98" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E98" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="D99" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E99" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="D100" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E100" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="D101" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E101" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="D102" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E102" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{D5388CE0-F96F-444D-B8BE-56F0B8566A94}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/contentUtility/CreateContent.xlsx
+++ b/contentUtility/CreateContent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roger.kibbe/Documents/Bixby_Capsules/capsule-sample-fact/contentUtility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17D6BF8-4F08-9046-8844-E52EA9A833CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD946EF-4E7F-AE4B-AECD-DD8BDA3BC993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32980" yWindow="3260" windowWidth="44360" windowHeight="24560" xr2:uid="{1219A86E-B1BE-2748-BCB3-FE7073D4C6FD}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>tag</t>
-  </si>
-  <si>
     <t>tag_processing (ignore)</t>
   </si>
   <si>
@@ -196,13 +193,19 @@
   </si>
   <si>
     <t>https://github.com/bixbydevelopers/capsule-sample-fact</t>
+  </si>
+  <si>
+    <t>NEED TO CUT AND PASTE FORMULAS FROM COLUMNS D&amp;E FOR CONTENT BEYOND HERE</t>
+  </si>
+  <si>
+    <t>tag (optional)</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Instructions:
 1) Enter your text facts into the text column (make sure their are formulas in columns D &amp;E for each row)
 2) Enter any tags for the text (optional). This will be used to drive questions like "Show me content about [tag]"
-3) Enter image URL's - not if hosting with the capsule e.g. using the assets/image folder, use the filename e.g, earth.png, if hosting externally, use a full URL e.g. http://www.imagehost.com/earth.png
+3) Enter image URL's (optional) - not if hosting with the capsule e.g. using the assets/image folder, use the filename e.g, earth.png, if hosting externally, use a full URL e.g. http://www.imagehost.com/earth.png
 4) Copy and paste the values (in </t>
     </r>
     <r>
@@ -225,9 +228,6 @@
       </rPr>
       <t>) from column E into the /code/content.js file</t>
     </r>
-  </si>
-  <si>
-    <t>NEED TO CUT AND PASTE FORMULAS FROM COLUMNS D&amp;E FOR CONTENT BEYOND HERE</t>
   </si>
 </sst>
 </file>
@@ -357,13 +357,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -682,7 +682,7 @@
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -696,35 +696,35 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24">
       <c r="A1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="112" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>47</v>
+      <c r="D3" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -734,9 +734,12 @@
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="7" t="str">
+        <f t="shared" ref="D4:D68" si="0">IF(ISBLANK(B4),"",CONCATENATE("[""",LOWER(SUBSTITUTE(B4,", ",""",""")),"""]"))</f>
+        <v/>
+      </c>
       <c r="E4" s="4" t="str">
-        <f t="shared" ref="E4:E28" si="0">IF(NOT(ISBLANK(A4)),CONCATENATE("{",IF(COUNTBLANK(D4),"",CONCATENATE("tags: ",D4,", ")),"text: """,A4,"","""",IF(ISBLANK(C4),"",CONCATENATE(", image: {url: """, IF(LEFT(C4,4)="http",C4,  CONCATENATE("images/",C4) ),"""}"  )  ),"},"),"")</f>
+        <f t="shared" ref="E4:E28" si="1">IF(NOT(ISBLANK(A4)),CONCATENATE("{",IF(COUNTBLANK(D4),"",CONCATENATE("tags: ",D4,", ")),"text: """,A4,"","""",IF(ISBLANK(C4),"",CONCATENATE(", image: {url: """, IF(LEFT(C4,4)="http",C4,  CONCATENATE("images/",C4) ),"""}"  )  ),"},"),"")</f>
         <v>{text: "The world’s oldest piece of chewing gum is over 9000 years old!", image: {url: "images/gum.png"}},</v>
       </c>
     </row>
@@ -747,12 +750,12 @@
       <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="9" t="str">
-        <f t="shared" ref="D5:D68" si="1">IF(ISBLANK(B5),"",CONCATENATE("[""",LOWER(SUBSTITUTE(B5,", ",""",""")),"""]"))</f>
+      <c r="D5" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "A sneeze travels about 100 miles per hour", image: {url: "images/sneeze.png"}},</v>
       </c>
     </row>
@@ -763,12 +766,12 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D6" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "It would take a sloth one month to travel one mile", image: {url: "images/sloth.png"}},</v>
       </c>
     </row>
@@ -776,12 +779,12 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D7" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "10% of the World’s population is left handed"},</v>
       </c>
     </row>
@@ -792,12 +795,12 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D8" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "Computers went by the name 'Electronic Brains' in the 1950s", image: {url: "images/computer_brain.png"}},</v>
       </c>
     </row>
@@ -808,12 +811,12 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "A broken clock is right two times every day", image: {url: "images/clock.png"}},</v>
       </c>
     </row>
@@ -821,9 +824,9 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "A mole can dig a tunnel that is 300 feet long in only one night"},</v>
       </c>
     </row>
@@ -834,12 +837,12 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D11" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "A crocodile can’t poke its tongue out", image: {url: "images/crocodile.png"}},</v>
       </c>
     </row>
@@ -847,12 +850,12 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D12" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "Blueberries will not ripen until they are picked"},</v>
       </c>
     </row>
@@ -863,12 +866,12 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D13" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "Honey never spoils", image: {url: "images/honey.png"}},</v>
       </c>
     </row>
@@ -879,12 +882,12 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D14" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "The first-ever webcam was used to watch a pot of coffee", image: {url: "images/coffee_pot.png"}},</v>
       </c>
     </row>
@@ -895,12 +898,12 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D15" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "In New York it is illegal to sell a haunted house without telling the buyer", image: {url: "images/haunted_house.png"}},</v>
       </c>
     </row>
@@ -908,12 +911,12 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D16" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "Human thigh bones are stronger than concrete"},</v>
       </c>
     </row>
@@ -924,12 +927,12 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D17" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "The male ostrich can roar just like a lion", image: {url: "images/ostrich.png"}},</v>
       </c>
     </row>
@@ -940,12 +943,12 @@
       <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D18" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "Scientists have tracked butterflies that travel over 3000 miles", image: {url: "images/butterfly.png"}},</v>
       </c>
     </row>
@@ -956,12 +959,12 @@
       <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D19" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "If 33 million people held hands they could make it all the way around the equator", image: {url: "images/earth.png"}},</v>
       </c>
     </row>
@@ -972,12 +975,12 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D20" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "The term 'tera' in terrabyte is from the greek word for monster", image: {url: "images/monster.png"}},</v>
       </c>
     </row>
@@ -988,12 +991,12 @@
       <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D21" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "The tongue of a blue whale weighs more than most elephants", image: {url: "images/whale.png"}},</v>
       </c>
     </row>
@@ -1004,12 +1007,12 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D22" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "A cow gives nearly 200,000 glasses of milk in a lifetime", image: {url: "images/cow.png"}},</v>
       </c>
     </row>
@@ -1020,12 +1023,12 @@
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D23" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{text: "Dolphins sleep with one eye open", image: {url: "images/dolphin.png"}},</v>
       </c>
     </row>
@@ -1037,14 +1040,14 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="9" t="str">
-        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D24" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>["dog","dogs"]</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{tags: ["dog","dogs"], text: "What do you call a cold dog?... A chili dog!", image: {url: "images/dog1.jpg"}},</v>
       </c>
     </row>
@@ -1056,14 +1059,14 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="9" t="str">
-        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>["dog","dogs"]</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{tags: ["dog","dogs"], text: "What do a dog and cell phone have in common?... Both have collar ID!", image: {url: "images/dog2.png"}},</v>
       </c>
     </row>
@@ -1075,14 +1078,14 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="9" t="str">
-        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D26" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>["dog","dogs"]</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{tags: ["dog","dogs"], text: "What kind of dog doesn't bark?... A hush puppy!", image: {url: "images/dog3.jpg"}},</v>
       </c>
     </row>
@@ -1094,14 +1097,14 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="9" t="str">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>["cat","cats"]</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{tags: ["cat","cats"], text: "What do cats like to eat on a hot day?... Mice Cream", image: {url: "images/cat1.png"}},</v>
       </c>
     </row>
@@ -1113,14 +1116,14 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="9" t="str">
-        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>["cat","cats"]</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{tags: ["cat","cats"], text: "Why was the cat afraid of the tree? Because of it's bark!", image: {url: "images/cat2.png"}},</v>
       </c>
     </row>
@@ -1132,10 +1135,10 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="9" t="str">
-        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>["cat","cats"]</v>
       </c>
       <c r="E29" s="4" t="str">
@@ -1144,8 +1147,8 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="D30" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D30" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E30" s="4" t="str">
@@ -1154,8 +1157,8 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="D31" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E31" s="4" t="str">
@@ -1164,8 +1167,8 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="D32" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D32" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E32" s="4" t="str">
@@ -1174,8 +1177,8 @@
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D33" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E33" s="4" t="str">
@@ -1184,8 +1187,8 @@
       </c>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D34" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E34" s="4" t="str">
@@ -1194,8 +1197,8 @@
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D35" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E35" s="4" t="str">
@@ -1204,8 +1207,8 @@
       </c>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D36" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E36" s="4" t="str">
@@ -1214,8 +1217,8 @@
       </c>
     </row>
     <row r="37" spans="4:5">
-      <c r="D37" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D37" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E37" s="4" t="str">
@@ -1224,8 +1227,8 @@
       </c>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D38" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E38" s="4" t="str">
@@ -1234,8 +1237,8 @@
       </c>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D39" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E39" s="4" t="str">
@@ -1244,8 +1247,8 @@
       </c>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D40" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E40" s="4" t="str">
@@ -1254,8 +1257,8 @@
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D41" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E41" s="4" t="str">
@@ -1264,8 +1267,8 @@
       </c>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D42" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E42" s="4" t="str">
@@ -1274,8 +1277,8 @@
       </c>
     </row>
     <row r="43" spans="4:5">
-      <c r="D43" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D43" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E43" s="4" t="str">
@@ -1284,8 +1287,8 @@
       </c>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D44" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E44" s="4" t="str">
@@ -1294,8 +1297,8 @@
       </c>
     </row>
     <row r="45" spans="4:5">
-      <c r="D45" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D45" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E45" s="4" t="str">
@@ -1304,8 +1307,8 @@
       </c>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D46" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E46" s="4" t="str">
@@ -1314,8 +1317,8 @@
       </c>
     </row>
     <row r="47" spans="4:5">
-      <c r="D47" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D47" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E47" s="4" t="str">
@@ -1324,8 +1327,8 @@
       </c>
     </row>
     <row r="48" spans="4:5">
-      <c r="D48" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D48" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E48" s="4" t="str">
@@ -1334,8 +1337,8 @@
       </c>
     </row>
     <row r="49" spans="4:5">
-      <c r="D49" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D49" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E49" s="4" t="str">
@@ -1344,8 +1347,8 @@
       </c>
     </row>
     <row r="50" spans="4:5">
-      <c r="D50" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D50" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E50" s="4" t="str">
@@ -1354,8 +1357,8 @@
       </c>
     </row>
     <row r="51" spans="4:5">
-      <c r="D51" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D51" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E51" s="4" t="str">
@@ -1364,8 +1367,8 @@
       </c>
     </row>
     <row r="52" spans="4:5">
-      <c r="D52" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D52" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E52" s="4" t="str">
@@ -1374,8 +1377,8 @@
       </c>
     </row>
     <row r="53" spans="4:5">
-      <c r="D53" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D53" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E53" s="4" t="str">
@@ -1384,8 +1387,8 @@
       </c>
     </row>
     <row r="54" spans="4:5">
-      <c r="D54" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D54" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E54" s="4" t="str">
@@ -1394,8 +1397,8 @@
       </c>
     </row>
     <row r="55" spans="4:5">
-      <c r="D55" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D55" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E55" s="4" t="str">
@@ -1404,8 +1407,8 @@
       </c>
     </row>
     <row r="56" spans="4:5">
-      <c r="D56" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D56" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E56" s="4" t="str">
@@ -1414,8 +1417,8 @@
       </c>
     </row>
     <row r="57" spans="4:5">
-      <c r="D57" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D57" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E57" s="4" t="str">
@@ -1424,8 +1427,8 @@
       </c>
     </row>
     <row r="58" spans="4:5">
-      <c r="D58" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D58" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E58" s="4" t="str">
@@ -1434,8 +1437,8 @@
       </c>
     </row>
     <row r="59" spans="4:5">
-      <c r="D59" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D59" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E59" s="4" t="str">
@@ -1444,8 +1447,8 @@
       </c>
     </row>
     <row r="60" spans="4:5">
-      <c r="D60" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D60" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E60" s="4" t="str">
@@ -1454,8 +1457,8 @@
       </c>
     </row>
     <row r="61" spans="4:5">
-      <c r="D61" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D61" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E61" s="4" t="str">
@@ -1464,8 +1467,8 @@
       </c>
     </row>
     <row r="62" spans="4:5">
-      <c r="D62" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D62" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E62" s="4" t="str">
@@ -1474,8 +1477,8 @@
       </c>
     </row>
     <row r="63" spans="4:5">
-      <c r="D63" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D63" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E63" s="4" t="str">
@@ -1484,8 +1487,8 @@
       </c>
     </row>
     <row r="64" spans="4:5">
-      <c r="D64" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D64" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E64" s="4" t="str">
@@ -1494,8 +1497,8 @@
       </c>
     </row>
     <row r="65" spans="4:5">
-      <c r="D65" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D65" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E65" s="4" t="str">
@@ -1504,8 +1507,8 @@
       </c>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D66" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E66" s="4" t="str">
@@ -1514,8 +1517,8 @@
       </c>
     </row>
     <row r="67" spans="4:5">
-      <c r="D67" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D67" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E67" s="4" t="str">
@@ -1524,8 +1527,8 @@
       </c>
     </row>
     <row r="68" spans="4:5">
-      <c r="D68" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D68" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E68" s="4" t="str">
@@ -1534,7 +1537,7 @@
       </c>
     </row>
     <row r="69" spans="4:5">
-      <c r="D69" s="9" t="str">
+      <c r="D69" s="7" t="str">
         <f t="shared" ref="D69:D102" si="3">IF(ISBLANK(B69),"",CONCATENATE("[""",LOWER(SUBSTITUTE(B69,", ",""",""")),"""]"))</f>
         <v/>
       </c>
@@ -1544,7 +1547,7 @@
       </c>
     </row>
     <row r="70" spans="4:5">
-      <c r="D70" s="9" t="str">
+      <c r="D70" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1554,7 +1557,7 @@
       </c>
     </row>
     <row r="71" spans="4:5">
-      <c r="D71" s="9" t="str">
+      <c r="D71" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1564,7 +1567,7 @@
       </c>
     </row>
     <row r="72" spans="4:5">
-      <c r="D72" s="9" t="str">
+      <c r="D72" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1574,7 +1577,7 @@
       </c>
     </row>
     <row r="73" spans="4:5">
-      <c r="D73" s="9" t="str">
+      <c r="D73" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1584,7 +1587,7 @@
       </c>
     </row>
     <row r="74" spans="4:5">
-      <c r="D74" s="9" t="str">
+      <c r="D74" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1594,7 +1597,7 @@
       </c>
     </row>
     <row r="75" spans="4:5">
-      <c r="D75" s="9" t="str">
+      <c r="D75" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1604,7 +1607,7 @@
       </c>
     </row>
     <row r="76" spans="4:5">
-      <c r="D76" s="9" t="str">
+      <c r="D76" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1614,7 +1617,7 @@
       </c>
     </row>
     <row r="77" spans="4:5">
-      <c r="D77" s="9" t="str">
+      <c r="D77" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1624,7 +1627,7 @@
       </c>
     </row>
     <row r="78" spans="4:5">
-      <c r="D78" s="9" t="str">
+      <c r="D78" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1634,7 +1637,7 @@
       </c>
     </row>
     <row r="79" spans="4:5">
-      <c r="D79" s="9" t="str">
+      <c r="D79" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1644,7 +1647,7 @@
       </c>
     </row>
     <row r="80" spans="4:5">
-      <c r="D80" s="9" t="str">
+      <c r="D80" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1654,7 +1657,7 @@
       </c>
     </row>
     <row r="81" spans="4:5">
-      <c r="D81" s="9" t="str">
+      <c r="D81" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1664,7 +1667,7 @@
       </c>
     </row>
     <row r="82" spans="4:5">
-      <c r="D82" s="9" t="str">
+      <c r="D82" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1674,7 +1677,7 @@
       </c>
     </row>
     <row r="83" spans="4:5">
-      <c r="D83" s="9" t="str">
+      <c r="D83" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1684,7 +1687,7 @@
       </c>
     </row>
     <row r="84" spans="4:5">
-      <c r="D84" s="9" t="str">
+      <c r="D84" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1694,7 +1697,7 @@
       </c>
     </row>
     <row r="85" spans="4:5">
-      <c r="D85" s="9" t="str">
+      <c r="D85" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1704,7 +1707,7 @@
       </c>
     </row>
     <row r="86" spans="4:5">
-      <c r="D86" s="9" t="str">
+      <c r="D86" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1714,7 +1717,7 @@
       </c>
     </row>
     <row r="87" spans="4:5">
-      <c r="D87" s="9" t="str">
+      <c r="D87" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1724,7 +1727,7 @@
       </c>
     </row>
     <row r="88" spans="4:5">
-      <c r="D88" s="9" t="str">
+      <c r="D88" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1734,7 +1737,7 @@
       </c>
     </row>
     <row r="89" spans="4:5">
-      <c r="D89" s="9" t="str">
+      <c r="D89" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1744,7 +1747,7 @@
       </c>
     </row>
     <row r="90" spans="4:5">
-      <c r="D90" s="9" t="str">
+      <c r="D90" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1754,7 +1757,7 @@
       </c>
     </row>
     <row r="91" spans="4:5">
-      <c r="D91" s="9" t="str">
+      <c r="D91" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1764,7 +1767,7 @@
       </c>
     </row>
     <row r="92" spans="4:5">
-      <c r="D92" s="9" t="str">
+      <c r="D92" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1774,7 +1777,7 @@
       </c>
     </row>
     <row r="93" spans="4:5">
-      <c r="D93" s="9" t="str">
+      <c r="D93" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1784,7 +1787,7 @@
       </c>
     </row>
     <row r="94" spans="4:5">
-      <c r="D94" s="9" t="str">
+      <c r="D94" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1794,7 +1797,7 @@
       </c>
     </row>
     <row r="95" spans="4:5">
-      <c r="D95" s="9" t="str">
+      <c r="D95" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1804,7 +1807,7 @@
       </c>
     </row>
     <row r="96" spans="4:5">
-      <c r="D96" s="9" t="str">
+      <c r="D96" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1814,7 +1817,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="D97" s="9" t="str">
+      <c r="D97" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1824,7 +1827,7 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="D98" s="9" t="str">
+      <c r="D98" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1834,7 +1837,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="D99" s="9" t="str">
+      <c r="D99" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1844,7 +1847,7 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="D100" s="9" t="str">
+      <c r="D100" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1854,7 +1857,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="D101" s="9" t="str">
+      <c r="D101" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1864,7 +1867,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="D102" s="9" t="str">
+      <c r="D102" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1875,7 +1878,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
